--- a/lookup_table.xlsx
+++ b/lookup_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COS Lookup" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>frequency</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>ADC Max Value</t>
+  </si>
+  <si>
+    <t>Absolute Amplitude</t>
   </si>
 </sst>
 </file>
@@ -88,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,7 +1375,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Square Lookup'!$E$5:$E$104</c:f>
+              <c:f>'Square Lookup'!$C$5:$C$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2247,309 +2251,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Square Lookup'!$E$5:$E$104</c:f>
+              <c:f>Sheet3!$D$5:$D$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1597</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2252</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2293</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2334</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2457</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2497</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2538</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2579</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2784</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2866</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2989</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3030</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3071</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3112</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3153</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3194</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3235</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3316</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3357</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3398</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3439</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3521</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3562</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3603</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3644</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3685</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3767</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3808</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3849</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3890</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3931</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3972</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4013</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4095</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7049,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7113,10 +7117,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7127,11 +7128,7 @@
         <f>A5*$E$2</f>
         <v>1E-4</v>
       </c>
-      <c r="D5">
-        <f>(C5--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E5">
+      <c r="C5">
         <v>4095</v>
       </c>
     </row>
@@ -7144,11 +7141,7 @@
         <f>A6*$E$2</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D6">
-        <f>(C6--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E6">
+      <c r="C6">
         <v>4095</v>
       </c>
     </row>
@@ -7161,11 +7154,7 @@
         <f>A7*$E$2</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="D7">
-        <f>(C7--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E7">
+      <c r="C7">
         <v>4095</v>
       </c>
     </row>
@@ -7178,11 +7167,7 @@
         <f>A8*$E$2</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D8">
-        <f>(C8--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E8">
+      <c r="C8">
         <v>4095</v>
       </c>
     </row>
@@ -7195,11 +7180,7 @@
         <f>A9*$E$2</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D9">
-        <f>(C9--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E9">
+      <c r="C9">
         <v>4095</v>
       </c>
     </row>
@@ -7212,11 +7193,7 @@
         <f>A10*$E$2</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="D10">
-        <f>(C10--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E10">
+      <c r="C10">
         <v>4095</v>
       </c>
     </row>
@@ -7229,11 +7206,7 @@
         <f>A11*$E$2</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D11">
-        <f>(C11--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E11">
+      <c r="C11">
         <v>4095</v>
       </c>
     </row>
@@ -7246,11 +7219,7 @@
         <f>A12*$E$2</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D12">
-        <f>(C12--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E12">
+      <c r="C12">
         <v>4095</v>
       </c>
     </row>
@@ -7263,11 +7232,7 @@
         <f>A13*$E$2</f>
         <v>9.0000000000000008E-4</v>
       </c>
-      <c r="D13">
-        <f>(C13--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E13">
+      <c r="C13">
         <v>4095</v>
       </c>
     </row>
@@ -7280,11 +7245,7 @@
         <f>A14*$E$2</f>
         <v>1E-3</v>
       </c>
-      <c r="D14">
-        <f>(C14--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E14">
+      <c r="C14">
         <v>4095</v>
       </c>
     </row>
@@ -7297,11 +7258,7 @@
         <f>A15*$E$2</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D15">
-        <f>(C15--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E15">
+      <c r="C15">
         <v>4095</v>
       </c>
     </row>
@@ -7314,15 +7271,11 @@
         <f>A16*$E$2</f>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="D16">
-        <f>(C16--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E16">
+      <c r="C16">
         <v>4095</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7331,15 +7284,11 @@
         <f>A17*$E$2</f>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="D17">
-        <f>(C17--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E17">
+      <c r="C17">
         <v>4095</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7348,15 +7297,11 @@
         <f>A18*$E$2</f>
         <v>1.4E-3</v>
       </c>
-      <c r="D18">
-        <f>(C18--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E18">
+      <c r="C18">
         <v>4095</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7365,15 +7310,11 @@
         <f>A19*$E$2</f>
         <v>1.5E-3</v>
       </c>
-      <c r="D19">
-        <f>(C19--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E19">
+      <c r="C19">
         <v>4095</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7382,15 +7323,11 @@
         <f>A20*$E$2</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D20">
-        <f>(C20--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E20">
+      <c r="C20">
         <v>4095</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7399,15 +7336,11 @@
         <f>A21*$E$2</f>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="D21">
-        <f>(C21--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E21">
+      <c r="C21">
         <v>4095</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7416,15 +7349,11 @@
         <f>A22*$E$2</f>
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="D22">
-        <f>(C22--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E22">
+      <c r="C22">
         <v>4095</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7433,15 +7362,11 @@
         <f>A23*$E$2</f>
         <v>1.9E-3</v>
       </c>
-      <c r="D23">
-        <f>(C23--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E23">
+      <c r="C23">
         <v>4095</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7450,15 +7375,11 @@
         <f>A24*$E$2</f>
         <v>2E-3</v>
       </c>
-      <c r="D24">
-        <f>(C24--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E24">
+      <c r="C24">
         <v>4095</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7467,15 +7388,11 @@
         <f>A25*$E$2</f>
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="D25">
-        <f>(C25--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E25">
+      <c r="C25">
         <v>4095</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7484,15 +7401,11 @@
         <f>A26*$E$2</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="D26">
-        <f>(C26--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E26">
+      <c r="C26">
         <v>4095</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7501,15 +7414,11 @@
         <f>A27*$E$2</f>
         <v>2.3E-3</v>
       </c>
-      <c r="D27">
-        <f>(C27--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E27">
+      <c r="C27">
         <v>4095</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7518,15 +7427,11 @@
         <f>A28*$E$2</f>
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="D28">
-        <f>(C28--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E28">
+      <c r="C28">
         <v>4095</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7535,15 +7440,11 @@
         <f>A29*$E$2</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D29">
-        <f>(C29--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E29">
+      <c r="C29">
         <v>4095</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7552,15 +7453,11 @@
         <f>A30*$E$2</f>
         <v>2.6000000000000003E-3</v>
       </c>
-      <c r="D30">
-        <f>(C30--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E30">
+      <c r="C30">
         <v>4095</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7569,15 +7466,11 @@
         <f>A31*$E$2</f>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="D31">
-        <f>(C31--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E31">
+      <c r="C31">
         <v>4095</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7586,15 +7479,11 @@
         <f>A32*$E$2</f>
         <v>2.8E-3</v>
       </c>
-      <c r="D32">
-        <f>(C32--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E32">
+      <c r="C32">
         <v>4095</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7603,15 +7492,11 @@
         <f>A33*$E$2</f>
         <v>2.9000000000000002E-3</v>
       </c>
-      <c r="D33">
-        <f>(C33--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E33">
+      <c r="C33">
         <v>4095</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7620,15 +7505,11 @@
         <f>A34*$E$2</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D34">
-        <f>(C34--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E34">
+      <c r="C34">
         <v>4095</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7637,15 +7518,11 @@
         <f>A35*$E$2</f>
         <v>3.1000000000000003E-3</v>
       </c>
-      <c r="D35">
-        <f>(C35--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E35">
+      <c r="C35">
         <v>4095</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7654,15 +7531,11 @@
         <f>A36*$E$2</f>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D36">
-        <f>(C36--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E36">
+      <c r="C36">
         <v>4095</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7671,15 +7544,11 @@
         <f>A37*$E$2</f>
         <v>3.3E-3</v>
       </c>
-      <c r="D37">
-        <f>(C37--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E37">
+      <c r="C37">
         <v>4095</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7688,15 +7557,11 @@
         <f>A38*$E$2</f>
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="D38">
-        <f>(C38--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E38">
+      <c r="C38">
         <v>4095</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7705,15 +7570,11 @@
         <f>A39*$E$2</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D39">
-        <f>(C39--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E39">
+      <c r="C39">
         <v>4095</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7722,15 +7583,11 @@
         <f>A40*$E$2</f>
         <v>3.6000000000000003E-3</v>
       </c>
-      <c r="D40">
-        <f>(C40--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E40">
+      <c r="C40">
         <v>4095</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7739,15 +7596,11 @@
         <f>A41*$E$2</f>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D41">
-        <f>(C41--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E41">
+      <c r="C41">
         <v>4095</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7756,15 +7609,11 @@
         <f>A42*$E$2</f>
         <v>3.8E-3</v>
       </c>
-      <c r="D42">
-        <f>(C42--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E42">
+      <c r="C42">
         <v>4095</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7773,15 +7622,11 @@
         <f>A43*$E$2</f>
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="D43">
-        <f>(C43--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E43">
+      <c r="C43">
         <v>4095</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7790,15 +7635,11 @@
         <f>A44*$E$2</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D44">
-        <f>(C44--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E44">
+      <c r="C44">
         <v>4095</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7807,15 +7648,11 @@
         <f>A45*$E$2</f>
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="D45">
-        <f>(C45--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E45">
+      <c r="C45">
         <v>4095</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7824,15 +7661,11 @@
         <f>A46*$E$2</f>
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="D46">
-        <f>(C46--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E46">
+      <c r="C46">
         <v>4095</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7841,15 +7674,11 @@
         <f>A47*$E$2</f>
         <v>4.3E-3</v>
       </c>
-      <c r="D47">
-        <f>(C47--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E47">
+      <c r="C47">
         <v>4095</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7858,15 +7687,11 @@
         <f>A48*$E$2</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="D48">
-        <f>(C48--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E48">
+      <c r="C48">
         <v>4095</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7875,15 +7700,11 @@
         <f>A49*$E$2</f>
         <v>4.5000000000000005E-3</v>
       </c>
-      <c r="D49">
-        <f>(C49--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E49">
+      <c r="C49">
         <v>4095</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7892,15 +7713,11 @@
         <f>A50*$E$2</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="D50">
-        <f>(C50--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E50">
+      <c r="C50">
         <v>4095</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7909,15 +7726,11 @@
         <f>A51*$E$2</f>
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D51">
-        <f>(C51--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E51">
+      <c r="C51">
         <v>4095</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7926,15 +7739,11 @@
         <f>A52*$E$2</f>
         <v>4.8000000000000004E-3</v>
       </c>
-      <c r="D52">
-        <f>(C52--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E52">
+      <c r="C52">
         <v>4095</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7943,15 +7752,11 @@
         <f>A53*$E$2</f>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D53">
-        <f>(C53--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E53">
+      <c r="C53">
         <v>4095</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7960,15 +7765,11 @@
         <f>A54*$E$2</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D54">
-        <f>(C54--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E54">
+      <c r="C54">
         <v>4095</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7977,15 +7778,11 @@
         <f>A55*$E$2</f>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="D55">
-        <f>(C55--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E55">
+      <c r="C55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7994,15 +7791,11 @@
         <f>A56*$E$2</f>
         <v>5.2000000000000006E-3</v>
       </c>
-      <c r="D56">
-        <f>(C56--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E56">
+      <c r="C56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -8011,15 +7804,11 @@
         <f>A57*$E$2</f>
         <v>5.3E-3</v>
       </c>
-      <c r="D57">
-        <f>(C57--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E57">
+      <c r="C57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -8028,15 +7817,11 @@
         <f>A58*$E$2</f>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D58">
-        <f>(C58--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E58">
+      <c r="C58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -8045,15 +7830,11 @@
         <f>A59*$E$2</f>
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="D59">
-        <f>(C59--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E59">
+      <c r="C59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -8062,15 +7843,11 @@
         <f>A60*$E$2</f>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="D60">
-        <f>(C60--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E60">
+      <c r="C60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -8079,15 +7856,11 @@
         <f>A61*$E$2</f>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="D61">
-        <f>(C61--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E61">
+      <c r="C61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -8096,15 +7869,11 @@
         <f>A62*$E$2</f>
         <v>5.8000000000000005E-3</v>
       </c>
-      <c r="D62">
-        <f>(C62--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E62">
+      <c r="C62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -8113,15 +7882,11 @@
         <f>A63*$E$2</f>
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D63">
-        <f>(C63--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E63">
+      <c r="C63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8130,15 +7895,11 @@
         <f>A64*$E$2</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D64">
-        <f>(C64--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E64">
+      <c r="C64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -8147,15 +7908,11 @@
         <f>A65*$E$2</f>
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="D65">
-        <f>(C65--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E65">
+      <c r="C65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8164,15 +7921,11 @@
         <f>A66*$E$2</f>
         <v>6.2000000000000006E-3</v>
       </c>
-      <c r="D66">
-        <f>(C66--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E66">
+      <c r="C66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8181,15 +7934,11 @@
         <f>A67*$E$2</f>
         <v>6.3E-3</v>
       </c>
-      <c r="D67">
-        <f>(C67--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E67">
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8198,15 +7947,11 @@
         <f>A68*$E$2</f>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="D68">
-        <f>(C68--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E68">
+      <c r="C68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8215,15 +7960,11 @@
         <f>A69*$E$2</f>
         <v>6.5000000000000006E-3</v>
       </c>
-      <c r="D69">
-        <f>(C69--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E69">
+      <c r="C69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8232,15 +7973,11 @@
         <f>A70*$E$2</f>
         <v>6.6E-3</v>
       </c>
-      <c r="D70">
-        <f>(C70--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E70">
+      <c r="C70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ref="A71:A104" si="1">A70+1</f>
         <v>67</v>
@@ -8249,15 +7986,11 @@
         <f>A71*$E$2</f>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="D71">
-        <f>(C71--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E71">
+      <c r="C71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -8266,15 +7999,11 @@
         <f>A72*$E$2</f>
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="D72">
-        <f>(C72--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E72">
+      <c r="C72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -8283,15 +8012,11 @@
         <f>A73*$E$2</f>
         <v>6.9000000000000008E-3</v>
       </c>
-      <c r="D73">
-        <f>(C73--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E73">
+      <c r="C73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -8300,15 +8025,11 @@
         <f>A74*$E$2</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D74">
-        <f>(C74--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E74">
+      <c r="C74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -8317,15 +8038,11 @@
         <f>A75*$E$2</f>
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D75">
-        <f>(C75--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E75">
+      <c r="C75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -8334,15 +8051,11 @@
         <f>A76*$E$2</f>
         <v>7.2000000000000007E-3</v>
       </c>
-      <c r="D76">
-        <f>(C76--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E76">
+      <c r="C76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -8351,15 +8064,11 @@
         <f>A77*$E$2</f>
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="D77">
-        <f>(C77--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E77">
+      <c r="C77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -8368,15 +8077,11 @@
         <f>A78*$E$2</f>
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="D78">
-        <f>(C78--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E78">
+      <c r="C78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -8385,15 +8090,11 @@
         <f>A79*$E$2</f>
         <v>7.5000000000000006E-3</v>
       </c>
-      <c r="D79">
-        <f>(C79--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E79">
+      <c r="C79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -8402,15 +8103,11 @@
         <f>A80*$E$2</f>
         <v>7.6E-3</v>
       </c>
-      <c r="D80">
-        <f>(C80--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E80">
+      <c r="C80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -8419,15 +8116,11 @@
         <f>A81*$E$2</f>
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="D81">
-        <f>(C81--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E81">
+      <c r="C81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -8436,15 +8129,11 @@
         <f>A82*$E$2</f>
         <v>7.8000000000000005E-3</v>
       </c>
-      <c r="D82">
-        <f>(C82--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E82">
+      <c r="C82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -8453,15 +8142,11 @@
         <f>A83*$E$2</f>
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="D83">
-        <f>(C83--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E83">
+      <c r="C83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -8470,15 +8155,11 @@
         <f>A84*$E$2</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D84">
-        <f>(C84--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E84">
+      <c r="C84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -8487,15 +8168,11 @@
         <f>A85*$E$2</f>
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="D85">
-        <f>(C85--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E85">
+      <c r="C85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -8504,15 +8181,11 @@
         <f>A86*$E$2</f>
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="D86">
-        <f>(C86--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E86">
+      <c r="C86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -8521,15 +8194,11 @@
         <f>A87*$E$2</f>
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="D87">
-        <f>(C87--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E87">
+      <c r="C87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -8538,15 +8207,11 @@
         <f>A88*$E$2</f>
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="D88">
-        <f>(C88--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E88">
+      <c r="C88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -8555,15 +8220,11 @@
         <f>A89*$E$2</f>
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="D89">
-        <f>(C89--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E89">
+      <c r="C89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -8572,15 +8233,11 @@
         <f>A90*$E$2</f>
         <v>8.6E-3</v>
       </c>
-      <c r="D90">
-        <f>(C90--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E90">
+      <c r="C90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -8589,15 +8246,11 @@
         <f>A91*$E$2</f>
         <v>8.7000000000000011E-3</v>
       </c>
-      <c r="D91">
-        <f>(C91--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E91">
+      <c r="C91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -8606,15 +8259,11 @@
         <f>A92*$E$2</f>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D92">
-        <f>(C92--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E92">
+      <c r="C92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -8623,15 +8272,11 @@
         <f>A93*$E$2</f>
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="D93">
-        <f>(C93--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E93">
+      <c r="C93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -8640,15 +8285,11 @@
         <f>A94*$E$2</f>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="D94">
-        <f>(C94--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E94">
+      <c r="C94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -8657,15 +8298,11 @@
         <f>A95*$E$2</f>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="D95">
-        <f>(C95--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E95">
+      <c r="C95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -8674,15 +8311,11 @@
         <f>A96*$E$2</f>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="D96">
-        <f>(C96--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E96">
+      <c r="C96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -8691,15 +8324,11 @@
         <f>A97*$E$2</f>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="D97">
-        <f>(C97--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E97">
+      <c r="C97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -8708,15 +8337,11 @@
         <f>A98*$E$2</f>
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="D98">
-        <f>(C98--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E98">
+      <c r="C98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -8725,15 +8350,11 @@
         <f>A99*$E$2</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="D99">
-        <f>(C99--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E99">
+      <c r="C99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -8742,15 +8363,11 @@
         <f>A100*$E$2</f>
         <v>9.6000000000000009E-3</v>
       </c>
-      <c r="D100">
-        <f>(C100--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E100">
+      <c r="C100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -8759,15 +8376,11 @@
         <f>A101*$E$2</f>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="D101">
-        <f>(C101--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E101">
+      <c r="C101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -8776,15 +8389,11 @@
         <f>A102*$E$2</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D102">
-        <f>(C102--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E102">
+      <c r="C102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -8793,15 +8402,11 @@
         <f>A103*$E$2</f>
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="D103">
-        <f>(C103--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E103">
+      <c r="C103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -8810,11 +8415,7 @@
         <f>A104*$E$2</f>
         <v>0.01</v>
       </c>
-      <c r="D104">
-        <f>(C104--1)/(2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E104">
+      <c r="C104">
         <v>0</v>
       </c>
     </row>
@@ -8828,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8898,16 +8499,13 @@
         <f>A5*$E$2</f>
         <v>1E-4</v>
       </c>
-      <c r="C5">
-        <f>COS(2*PI()*$C$1*B5)</f>
-        <v>0.99802672842827156</v>
-      </c>
-      <c r="D5">
-        <f>(C5--1)/(2)</f>
-        <v>0.99901336421413578</v>
-      </c>
-      <c r="E5">
-        <v>4095</v>
+      <c r="C5" s="1">
+        <f>100*B5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="2">
+        <f>_xlfn.FLOOR.MATH(C5*$H$1)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8919,2074 +8517,1777 @@
         <f t="shared" ref="B6:B69" si="0">A6*$E$2</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C6">
-        <f>COS(2*PI()*$C$1*B6)</f>
-        <v>0.99211470131447788</v>
-      </c>
-      <c r="D6">
-        <f>(C6--1)/(2)</f>
-        <v>0.99605735065723899</v>
-      </c>
-      <c r="E6">
-        <v>4095</v>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C69" si="1">100*B6</f>
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D69" si="2">_xlfn.FLOOR.MATH(C6*$H$1)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:A70" si="1">A6+1</f>
+        <f t="shared" ref="A7:A70" si="3">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="C7">
-        <f>COS(2*PI()*$C$1*B7)</f>
-        <v>0.98228725072868872</v>
-      </c>
-      <c r="D7">
-        <f>(C7--1)/(2)</f>
-        <v>0.99114362536434442</v>
-      </c>
-      <c r="E7">
-        <v>4095</v>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="C8">
-        <f>COS(2*PI()*$C$1*B8)</f>
-        <v>0.96858316112863108</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D71" si="2">(C8--1)/(2)</f>
-        <v>0.98429158056431554</v>
-      </c>
-      <c r="E8">
-        <v>4095</v>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C72" si="3">COS(2*PI()*$C$1*B9)</f>
-        <v>0.95105651629515353</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>0.97552825814757682</v>
-      </c>
-      <c r="E9">
-        <v>4095</v>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>0.92977648588825135</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>0.96488824294412567</v>
-      </c>
-      <c r="E10">
-        <v>4095</v>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>0.90482705246601958</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0.95241352623300979</v>
-      </c>
-      <c r="E11">
-        <v>4095</v>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>0.87630668004386358</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0.93815334002193174</v>
-      </c>
-      <c r="E12">
-        <v>4095</v>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>9.0000000000000008E-4</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>0.84432792550201496</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0.92216396275100743</v>
-      </c>
-      <c r="E13">
-        <v>4095</v>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>0.80901699437494745</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0.90450849718747373</v>
-      </c>
-      <c r="E14">
-        <v>4095</v>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>0.77051324277578914</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0.88525662138789452</v>
-      </c>
-      <c r="E15">
-        <v>4095</v>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>0.72896862742141155</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>0.86448431371070578</v>
-      </c>
-      <c r="E16">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>1.3000000000000002E-3</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>0.68454710592868862</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>0.84227355296434436</v>
-      </c>
-      <c r="E17">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>1.4E-3</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>0.63742398974868975</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>0.81871199487434487</v>
-      </c>
-      <c r="E18">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>0.58778525229247303</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0.79389262614623646</v>
-      </c>
-      <c r="E19">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>0.53582679497899655</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>0.76791339748949827</v>
-      </c>
-      <c r="E20">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>0.48175367410171516</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0.74087683705085761</v>
-      </c>
-      <c r="E21">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>0.42577929156507244</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>0.71288964578253622</v>
-      </c>
-      <c r="E22">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>1.9E-3</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>0.36812455268467786</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0.68406227634233896</v>
-      </c>
-      <c r="E23">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="2"/>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>0.30901699437494745</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.65450849718747373</v>
-      </c>
-      <c r="E24">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>0.24868988716485455</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.62434494358242731</v>
-      </c>
-      <c r="E25">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>0.18738131458572452</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.5936906572928623</v>
-      </c>
-      <c r="E26">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>2.3E-3</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>0.12533323356430426</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0.56266661678215213</v>
-      </c>
-      <c r="E27">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>2.4000000000000002E-3</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>6.2790519529313304E-2</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>0.53139525976465662</v>
-      </c>
-      <c r="E28">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="2"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="2"/>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000003E-3</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000002E-3</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1000000000000003E-3</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3E-3</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="2"/>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="2"/>
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000003E-3</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="2"/>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8E-3</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000003E-3</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="2"/>
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="2"/>
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="2"/>
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="2"/>
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3E-3</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="2"/>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="2"/>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="2"/>
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="2"/>
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="2"/>
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="2"/>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E29">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6000000000000003E-3</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>-6.2790519529313624E-2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>0.46860474023534321</v>
-      </c>
-      <c r="E30">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>-0.12533323356430437</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>0.43733338321784782</v>
-      </c>
-      <c r="E31">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>-0.1873813145857246</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>0.4063093427071377</v>
-      </c>
-      <c r="E32">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9000000000000002E-3</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="3"/>
-        <v>-0.24868988716485485</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0.37565505641757257</v>
-      </c>
-      <c r="E33">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>-0.30901699437494756</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>0.34549150281252622</v>
-      </c>
-      <c r="E34">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1000000000000003E-3</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>-0.3681245526846782</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>0.31593772365766093</v>
-      </c>
-      <c r="E35">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>-0.42577929156507272</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>0.28711035421746367</v>
-      </c>
-      <c r="E36">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3E-3</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>-0.48175367410171543</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>0.25912316294914228</v>
-      </c>
-      <c r="E37">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>-0.53582679497899688</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>0.23208660251050156</v>
-      </c>
-      <c r="E38">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>-0.58778525229247303</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>0.20610737385376349</v>
-      </c>
-      <c r="E39">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6000000000000003E-3</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>-0.63742398974869008</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>0.18128800512565496</v>
-      </c>
-      <c r="E40">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>-0.68454710592868873</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>0.15772644703565564</v>
-      </c>
-      <c r="E41">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8E-3</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>-0.72896862742141166</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>0.13551568628929417</v>
-      </c>
-      <c r="E42">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="3"/>
-        <v>-0.77051324277578936</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>0.11474337861210532</v>
-      </c>
-      <c r="E43">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="3"/>
-        <v>-0.80901699437494734</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>9.549150281252633E-2</v>
-      </c>
-      <c r="E44">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="3"/>
-        <v>-0.8443279255020153</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>7.7836037248992351E-2</v>
-      </c>
-      <c r="E45">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000006E-3</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="3"/>
-        <v>-0.87630668004386381</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>6.1846659978068097E-2</v>
-      </c>
-      <c r="E46">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3E-3</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="3"/>
-        <v>-0.90482705246601958</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>4.7586473766990212E-2</v>
-      </c>
-      <c r="E47">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="3"/>
-        <v>-0.92977648588825146</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>3.5111757055874271E-2</v>
-      </c>
-      <c r="E48">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5000000000000005E-3</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="3"/>
-        <v>-0.95105651629515364</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>2.4471741852423179E-2</v>
-      </c>
-      <c r="E49">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="3"/>
-        <v>-0.96858316112863108</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>1.5708419435684462E-2</v>
-      </c>
-      <c r="E50">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="3"/>
-        <v>-0.98228725072868872</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>8.8563746356556394E-3</v>
-      </c>
-      <c r="E51">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8000000000000004E-3</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="3"/>
-        <v>-0.99211470131447788</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="2"/>
-        <v>3.942649342761062E-3</v>
-      </c>
-      <c r="E52">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="3"/>
-        <v>-0.99802672842827156</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="2"/>
-        <v>9.8663578586422052E-4</v>
-      </c>
-      <c r="E53">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>4095</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <f t="shared" si="2"/>
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="3"/>
-        <v>-0.99802672842827156</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="2"/>
-        <v>9.8663578586422052E-4</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="2"/>
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>5.2000000000000006E-3</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="3"/>
-        <v>-0.99211470131447776</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="2"/>
-        <v>3.9426493427611176E-3</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="2"/>
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>5.3E-3</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="3"/>
-        <v>-0.98228725072868861</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="2"/>
-        <v>8.8563746356556949E-3</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="2"/>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="3"/>
-        <v>-0.96858316112863108</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="2"/>
-        <v>1.5708419435684462E-2</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="2"/>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>5.5000000000000005E-3</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="3"/>
-        <v>-0.95105651629515353</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="2"/>
-        <v>2.4471741852423234E-2</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="2"/>
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="3"/>
-        <v>-0.92977648588825146</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="2"/>
-        <v>3.5111757055874271E-2</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="2"/>
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="3"/>
-        <v>-0.90482705246601947</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="2"/>
-        <v>4.7586473766990267E-2</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="2"/>
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>5.8000000000000005E-3</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="3"/>
-        <v>-0.87630668004386347</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="2"/>
-        <v>6.1846659978068264E-2</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="2"/>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="3"/>
-        <v>-0.84432792550201519</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="2"/>
-        <v>7.7836037248992407E-2</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="2"/>
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="3"/>
-        <v>-0.80901699437494723</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
-        <v>9.5491502812526385E-2</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="2"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="3"/>
-        <v>-0.77051324277578903</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
-        <v>0.11474337861210548</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="2"/>
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>6.2000000000000006E-3</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="3"/>
-        <v>-0.72896862742141122</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="2"/>
-        <v>0.13551568628929439</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="2"/>
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>6.3E-3</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="3"/>
-        <v>-0.68454710592868862</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="2"/>
-        <v>0.15772644703565569</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="2"/>
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="3"/>
-        <v>-0.63742398974868952</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="2"/>
-        <v>0.18128800512565524</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="2"/>
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="0"/>
         <v>6.5000000000000006E-3</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
-        <v>-0.58778525229247258</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="2"/>
-        <v>0.20610737385376371</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="2"/>
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" ref="B70:B104" si="4">A70*$E$2</f>
         <v>6.6E-3</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
-        <v>-0.53582679497899632</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="2"/>
-        <v>0.23208660251050184</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
+        <f t="shared" ref="C70:C104" si="5">100*B70</f>
+        <v>0.66</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" ref="D70:D104" si="6">_xlfn.FLOOR.MATH(C70*$H$1)</f>
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" ref="A71:A104" si="5">A70+1</f>
+        <f t="shared" ref="A71:A104" si="7">A70+1</f>
         <v>67</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
-        <v>-0.48175367410171527</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="2"/>
-        <v>0.25912316294914239</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <f t="shared" si="5"/>
+        <v>0.67</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="6"/>
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="4"/>
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
-        <v>-0.42577929156507216</v>
-      </c>
-      <c r="D72">
-        <f t="shared" ref="D72:D104" si="6">(C72--1)/(2)</f>
-        <v>0.28711035421746389</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <f t="shared" si="5"/>
+        <v>0.68</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="6"/>
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="4"/>
         <v>6.9000000000000008E-3</v>
       </c>
-      <c r="C73">
-        <f t="shared" ref="C73:C104" si="7">COS(2*PI()*$C$1*B73)</f>
-        <v>-0.36812455268467781</v>
-      </c>
-      <c r="D73">
+      <c r="C73" s="1">
+        <f t="shared" si="5"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="D73" s="2">
         <f t="shared" si="6"/>
-        <v>0.3159377236576611</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="4"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="6"/>
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
         <f t="shared" si="7"/>
-        <v>-0.30901699437494756</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="6"/>
-        <v>0.34549150281252622</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="4"/>
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
+        <f t="shared" si="5"/>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="6"/>
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
         <f t="shared" si="7"/>
-        <v>-0.24868988716485443</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="6"/>
-        <v>0.3756550564175728</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
         <v>7.2000000000000007E-3</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="6"/>
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
         <f t="shared" si="7"/>
-        <v>-0.18738131458572377</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="6"/>
-        <v>0.40630934270713814</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
+        <f t="shared" si="5"/>
+        <v>0.73</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="6"/>
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
         <f t="shared" si="7"/>
-        <v>-0.12533323356430459</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="6"/>
-        <v>0.4373333832178477</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
+        <f t="shared" si="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="6"/>
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
         <f t="shared" si="7"/>
-        <v>-6.2790519529313207E-2</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="6"/>
-        <v>0.46860474023534338</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
         <v>7.5000000000000006E-3</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
+        <f t="shared" si="5"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="6"/>
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
         <f t="shared" si="7"/>
-        <v>7.0440615146383223E-16</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="6"/>
-        <v>0.50000000000000033</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
         <v>7.6E-3</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="6"/>
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
         <f t="shared" si="7"/>
-        <v>6.2790519529313721E-2</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="6"/>
-        <v>0.53139525976465685</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
+        <f t="shared" si="5"/>
+        <v>0.77</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="6"/>
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
         <f t="shared" si="7"/>
-        <v>0.12533323356430423</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="6"/>
-        <v>0.56266661678215213</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
         <v>7.8000000000000005E-3</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="6"/>
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
         <f t="shared" si="7"/>
-        <v>0.18738131458572513</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="6"/>
-        <v>0.59369065729286252</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
+        <f t="shared" si="5"/>
+        <v>0.79</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="6"/>
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
         <f t="shared" si="7"/>
-        <v>0.24868988716485493</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="6"/>
-        <v>0.62434494358242743</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="6"/>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
         <f t="shared" si="7"/>
-        <v>0.30901699437494723</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="6"/>
-        <v>0.65450849718747361</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
+        <f t="shared" si="5"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="6"/>
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
         <f t="shared" si="7"/>
-        <v>0.36812455268467742</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="6"/>
-        <v>0.68406227634233874</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
+        <f t="shared" si="5"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="6"/>
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
         <f t="shared" si="7"/>
-        <v>0.42577929156507344</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="6"/>
-        <v>0.71288964578253666</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
+        <f t="shared" si="5"/>
+        <v>0.83</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="6"/>
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
         <f t="shared" si="7"/>
-        <v>0.48175367410171571</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="6"/>
-        <v>0.74087683705085783</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="4"/>
         <v>8.4000000000000012E-3</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="6"/>
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
         <f t="shared" si="7"/>
-        <v>0.53582679497899754</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="6"/>
-        <v>0.76791339748949872</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="4"/>
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
+        <f t="shared" si="5"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="6"/>
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
         <f t="shared" si="7"/>
-        <v>0.58778525229247369</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="6"/>
-        <v>0.7938926261462369</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="4"/>
         <v>8.6E-3</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="6"/>
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
         <f t="shared" si="7"/>
-        <v>0.63742398974868997</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="6"/>
-        <v>0.81871199487434498</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="4"/>
         <v>8.7000000000000011E-3</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="6"/>
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
         <f t="shared" si="7"/>
-        <v>0.68454710592868928</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="6"/>
-        <v>0.84227355296434459</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="4"/>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="6"/>
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
         <f t="shared" si="7"/>
-        <v>0.72896862742141189</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="6"/>
-        <v>0.86448431371070589</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="4"/>
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="6"/>
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
         <f t="shared" si="7"/>
-        <v>0.77051324277578936</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="6"/>
-        <v>0.88525662138789474</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="4"/>
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="6"/>
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
         <f t="shared" si="7"/>
-        <v>0.80901699437494778</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="6"/>
-        <v>0.90450849718747395</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="4"/>
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
+        <f t="shared" si="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="6"/>
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
         <f t="shared" si="7"/>
-        <v>0.8443279255020153</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="6"/>
-        <v>0.92216396275100765</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="4"/>
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
+        <f t="shared" si="5"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="6"/>
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
         <f t="shared" si="7"/>
-        <v>0.87630668004386358</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="6"/>
-        <v>0.93815334002193174</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="4"/>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
+        <f t="shared" si="5"/>
+        <v>0.93</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="6"/>
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
         <f t="shared" si="7"/>
-        <v>0.90482705246601969</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="6"/>
-        <v>0.95241352623300979</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="4"/>
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
+        <f t="shared" si="5"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="6"/>
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
         <f t="shared" si="7"/>
-        <v>0.92977648588825146</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="6"/>
-        <v>0.96488824294412567</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="4"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="6"/>
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
         <f t="shared" si="7"/>
-        <v>0.95105651629515353</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="6"/>
-        <v>0.97552825814757682</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="4"/>
         <v>9.6000000000000009E-3</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="6"/>
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
         <f t="shared" si="7"/>
-        <v>0.96858316112863119</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="6"/>
-        <v>0.98429158056431554</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="4"/>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="6"/>
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
         <f t="shared" si="7"/>
-        <v>0.98228725072868872</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="6"/>
-        <v>0.99114362536434442</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="4"/>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="6"/>
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
         <f t="shared" si="7"/>
-        <v>0.99211470131447776</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="6"/>
-        <v>0.99605735065723888</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="4"/>
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
+        <f t="shared" si="5"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="6"/>
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
         <f t="shared" si="7"/>
-        <v>0.99802672842827156</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="6"/>
-        <v>0.99901336421413578</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="C104">
-        <f t="shared" si="7"/>
+      <c r="C104" s="1">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
+        <v>4095</v>
       </c>
     </row>
   </sheetData>
